--- a/ASP.NET CORE/HRMNS/public/wwwroot/templates/Salary_Detail.xlsx
+++ b/ASP.NET CORE/HRMNS/public/wwwroot/templates/Salary_Detail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\HRMS\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Source\NET CORE\ASP.NET CORE\HRMNS\public\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="T02" sheetId="1" r:id="rId1"/>
@@ -2580,9 +2580,207 @@
     <xf numFmtId="41" fontId="8" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,208 +2796,52 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2813,48 +2855,6 @@
     </xf>
     <xf numFmtId="171" fontId="25" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3516,11 +3516,11 @@
   </sheetPr>
   <dimension ref="A1:EI3"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="CM3" sqref="CM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="34.5" customHeight="1"/>
@@ -3623,49 +3623,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:139" s="3" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A1" s="204" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="163" t="s">
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="163" t="s">
+      <c r="F1" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="206" t="s">
+      <c r="G1" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="163" t="s">
+      <c r="H1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="208" t="s">
+      <c r="I1" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="210" t="s">
+      <c r="J1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="210" t="s">
+      <c r="K1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="203" t="s">
+      <c r="L1" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="191" t="s">
+      <c r="M1" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="193" t="s">
+      <c r="N1" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="195" t="s">
+      <c r="O1" s="158" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="1">
@@ -3674,307 +3674,307 @@
       <c r="Q1" s="2">
         <v>44985</v>
       </c>
-      <c r="R1" s="197" t="s">
+      <c r="R1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="199" t="s">
+      <c r="S1" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="199" t="s">
+      <c r="T1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="180" t="s">
+      <c r="U1" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="180" t="s">
+      <c r="V1" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="201" t="s">
+      <c r="W1" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="201" t="s">
+      <c r="X1" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="201" t="s">
+      <c r="Y1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="180" t="s">
+      <c r="Z1" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="180" t="s">
+      <c r="AA1" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="180" t="s">
+      <c r="AB1" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="179" t="s">
+      <c r="AC1" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="179"/>
-      <c r="AE1" s="179"/>
-      <c r="AF1" s="179"/>
-      <c r="AG1" s="179"/>
-      <c r="AH1" s="179"/>
-      <c r="AI1" s="179" t="s">
+      <c r="AD1" s="165"/>
+      <c r="AE1" s="165"/>
+      <c r="AF1" s="165"/>
+      <c r="AG1" s="165"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="179"/>
-      <c r="AK1" s="179"/>
-      <c r="AL1" s="179"/>
-      <c r="AM1" s="179"/>
-      <c r="AN1" s="179"/>
-      <c r="AO1" s="180" t="s">
+      <c r="AJ1" s="165"/>
+      <c r="AK1" s="165"/>
+      <c r="AL1" s="165"/>
+      <c r="AM1" s="165"/>
+      <c r="AN1" s="165"/>
+      <c r="AO1" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="180" t="s">
+      <c r="AP1" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="185" t="s">
+      <c r="AQ1" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="185" t="s">
+      <c r="AR1" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="180" t="s">
+      <c r="AS1" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="185" t="s">
+      <c r="AT1" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="185" t="s">
+      <c r="AU1" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="180" t="s">
+      <c r="AV1" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="179" t="s">
+      <c r="AW1" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="179"/>
-      <c r="AY1" s="179"/>
-      <c r="AZ1" s="179"/>
-      <c r="BA1" s="179"/>
-      <c r="BB1" s="179"/>
-      <c r="BC1" s="179" t="s">
+      <c r="AX1" s="165"/>
+      <c r="AY1" s="165"/>
+      <c r="AZ1" s="165"/>
+      <c r="BA1" s="165"/>
+      <c r="BB1" s="165"/>
+      <c r="BC1" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="179"/>
-      <c r="BE1" s="179"/>
-      <c r="BF1" s="179"/>
-      <c r="BG1" s="179"/>
-      <c r="BH1" s="179"/>
-      <c r="BI1" s="180" t="s">
+      <c r="BD1" s="165"/>
+      <c r="BE1" s="165"/>
+      <c r="BF1" s="165"/>
+      <c r="BG1" s="165"/>
+      <c r="BH1" s="165"/>
+      <c r="BI1" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="BJ1" s="180" t="s">
+      <c r="BJ1" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="BK1" s="182" t="s">
+      <c r="BK1" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" s="183"/>
-      <c r="BM1" s="183"/>
-      <c r="BN1" s="183"/>
-      <c r="BO1" s="184"/>
-      <c r="BP1" s="185" t="s">
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="172"/>
+      <c r="BP1" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="BQ1" s="187" t="s">
+      <c r="BQ1" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="189" t="s">
+      <c r="BR1" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="BS1" s="190"/>
-      <c r="BT1" s="173" t="s">
+      <c r="BS1" s="176"/>
+      <c r="BT1" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="BU1" s="173" t="s">
+      <c r="BU1" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="BV1" s="173" t="s">
+      <c r="BV1" s="168" t="s">
         <v>45</v>
       </c>
-      <c r="BW1" s="173" t="s">
+      <c r="BW1" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="BX1" s="173" t="s">
+      <c r="BX1" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="173" t="s">
+      <c r="BY1" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="BZ1" s="175" t="s">
+      <c r="BZ1" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="CA1" s="175" t="s">
+      <c r="CA1" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="CB1" s="175" t="s">
+      <c r="CB1" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="CC1" s="177" t="s">
+      <c r="CC1" s="181" t="s">
         <v>52</v>
       </c>
-      <c r="CD1" s="161" t="s">
+      <c r="CD1" s="183" t="s">
         <v>53</v>
       </c>
-      <c r="CE1" s="161" t="s">
+      <c r="CE1" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="CF1" s="161" t="s">
+      <c r="CF1" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="CG1" s="161" t="s">
+      <c r="CG1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="CH1" s="146" t="s">
+      <c r="CH1" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="CI1" s="171" t="s">
+      <c r="CI1" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="CJ1" s="161" t="s">
+      <c r="CJ1" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="CK1" s="163" t="s">
+      <c r="CK1" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="CL1" s="146" t="s">
+      <c r="CL1" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="CM1" s="146" t="s">
+      <c r="CM1" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="CN1" s="165" t="s">
+      <c r="CN1" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="CO1" s="146" t="s">
+      <c r="CO1" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="CP1" s="165" t="s">
+      <c r="CP1" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="CQ1" s="146" t="s">
+      <c r="CQ1" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="CR1" s="167" t="s">
+      <c r="CR1" s="189" t="s">
         <v>66</v>
       </c>
-      <c r="CS1" s="169" t="s">
+      <c r="CS1" s="191" t="s">
         <v>67</v>
       </c>
-      <c r="CT1" s="146" t="s">
+      <c r="CT1" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="CU1" s="146" t="s">
+      <c r="CU1" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="CV1" s="146" t="s">
+      <c r="CV1" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="CW1" s="148" t="s">
+      <c r="CW1" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="CX1" s="150" t="s">
+      <c r="CX1" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="CY1" s="152" t="s">
+      <c r="CY1" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="CZ1" s="140" t="s">
+      <c r="CZ1" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="DA1" s="140"/>
-      <c r="DB1" s="140"/>
-      <c r="DC1" s="140"/>
-      <c r="DD1" s="154" t="s">
+      <c r="DA1" s="193"/>
+      <c r="DB1" s="193"/>
+      <c r="DC1" s="193"/>
+      <c r="DD1" s="200" t="s">
         <v>48</v>
       </c>
-      <c r="DE1" s="156" t="s">
+      <c r="DE1" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="DF1" s="158" t="s">
+      <c r="DF1" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="DG1" s="160">
+      <c r="DG1" s="206">
         <v>44958</v>
       </c>
-      <c r="DH1" s="160"/>
-      <c r="DI1" s="140" t="s">
+      <c r="DH1" s="206"/>
+      <c r="DI1" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="DJ1" s="140"/>
-      <c r="DK1" s="140"/>
-      <c r="DL1" s="140"/>
-      <c r="DM1" s="140"/>
-      <c r="DN1" s="140"/>
-      <c r="DO1" s="140"/>
-      <c r="DP1" s="140" t="s">
+      <c r="DJ1" s="193"/>
+      <c r="DK1" s="193"/>
+      <c r="DL1" s="193"/>
+      <c r="DM1" s="193"/>
+      <c r="DN1" s="193"/>
+      <c r="DO1" s="193"/>
+      <c r="DP1" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="DQ1" s="140"/>
-      <c r="DR1" s="140" t="s">
+      <c r="DQ1" s="193"/>
+      <c r="DR1" s="193" t="s">
         <v>78</v>
       </c>
-      <c r="DS1" s="140"/>
-      <c r="DT1" s="140" t="s">
+      <c r="DS1" s="193"/>
+      <c r="DT1" s="193" t="s">
         <v>79</v>
       </c>
-      <c r="DU1" s="142" t="s">
+      <c r="DU1" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="DV1" s="143"/>
-      <c r="DW1" s="144" t="s">
+      <c r="DV1" s="209"/>
+      <c r="DW1" s="210" t="s">
         <v>115</v>
       </c>
-      <c r="DX1" s="140" t="s">
+      <c r="DX1" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="DY1" s="140"/>
-      <c r="DZ1" s="140"/>
-      <c r="EA1" s="140" t="s">
+      <c r="DY1" s="193"/>
+      <c r="DZ1" s="193"/>
+      <c r="EA1" s="193" t="s">
         <v>82</v>
       </c>
-      <c r="EB1" s="140"/>
-      <c r="EC1" s="140"/>
-      <c r="ED1" s="141" t="s">
+      <c r="EB1" s="193"/>
+      <c r="EC1" s="193"/>
+      <c r="ED1" s="207" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:139" s="3" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="196"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="196"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="141"/>
       <c r="P2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="198"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="202"/>
-      <c r="Y2" s="202"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="164"/>
+      <c r="X2" s="164"/>
+      <c r="Y2" s="164"/>
+      <c r="Z2" s="153"/>
+      <c r="AA2" s="153"/>
+      <c r="AB2" s="153"/>
       <c r="AC2" s="5">
         <v>1.5</v>
       </c>
@@ -4011,14 +4011,14 @@
       <c r="AN2" s="5">
         <v>3.9</v>
       </c>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="181"/>
-      <c r="AQ2" s="186"/>
-      <c r="AR2" s="186"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="186"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="181"/>
+      <c r="AO2" s="153"/>
+      <c r="AP2" s="153"/>
+      <c r="AQ2" s="167"/>
+      <c r="AR2" s="167"/>
+      <c r="AS2" s="153"/>
+      <c r="AT2" s="167"/>
+      <c r="AU2" s="167"/>
+      <c r="AV2" s="153"/>
       <c r="AW2" s="5">
         <v>1.5</v>
       </c>
@@ -4055,8 +4055,8 @@
       <c r="BH2" s="5">
         <v>3.9</v>
       </c>
-      <c r="BI2" s="181"/>
-      <c r="BJ2" s="181"/>
+      <c r="BI2" s="153"/>
+      <c r="BJ2" s="153"/>
       <c r="BK2" s="6" t="s">
         <v>86</v>
       </c>
@@ -4072,46 +4072,46 @@
       <c r="BO2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BP2" s="186"/>
-      <c r="BQ2" s="188"/>
+      <c r="BP2" s="167"/>
+      <c r="BQ2" s="174"/>
       <c r="BR2" s="68" t="s">
         <v>117</v>
       </c>
       <c r="BS2" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="BT2" s="174"/>
-      <c r="BU2" s="174"/>
-      <c r="BV2" s="174"/>
-      <c r="BW2" s="174"/>
-      <c r="BX2" s="174"/>
-      <c r="BY2" s="174"/>
-      <c r="BZ2" s="176"/>
-      <c r="CA2" s="176"/>
-      <c r="CB2" s="176"/>
-      <c r="CC2" s="178"/>
-      <c r="CD2" s="162"/>
-      <c r="CE2" s="162"/>
-      <c r="CF2" s="162"/>
-      <c r="CG2" s="162"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="172"/>
-      <c r="CJ2" s="162"/>
-      <c r="CK2" s="164"/>
-      <c r="CL2" s="147"/>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="166"/>
-      <c r="CO2" s="147"/>
-      <c r="CP2" s="166"/>
-      <c r="CQ2" s="147"/>
-      <c r="CR2" s="168"/>
-      <c r="CS2" s="170"/>
-      <c r="CT2" s="147"/>
-      <c r="CU2" s="147"/>
-      <c r="CV2" s="147"/>
-      <c r="CW2" s="149"/>
-      <c r="CX2" s="151"/>
-      <c r="CY2" s="153"/>
+      <c r="BT2" s="169"/>
+      <c r="BU2" s="169"/>
+      <c r="BV2" s="169"/>
+      <c r="BW2" s="169"/>
+      <c r="BX2" s="169"/>
+      <c r="BY2" s="169"/>
+      <c r="BZ2" s="180"/>
+      <c r="CA2" s="180"/>
+      <c r="CB2" s="180"/>
+      <c r="CC2" s="182"/>
+      <c r="CD2" s="184"/>
+      <c r="CE2" s="184"/>
+      <c r="CF2" s="184"/>
+      <c r="CG2" s="184"/>
+      <c r="CH2" s="186"/>
+      <c r="CI2" s="178"/>
+      <c r="CJ2" s="184"/>
+      <c r="CK2" s="145"/>
+      <c r="CL2" s="186"/>
+      <c r="CM2" s="186"/>
+      <c r="CN2" s="188"/>
+      <c r="CO2" s="186"/>
+      <c r="CP2" s="188"/>
+      <c r="CQ2" s="186"/>
+      <c r="CR2" s="190"/>
+      <c r="CS2" s="192"/>
+      <c r="CT2" s="186"/>
+      <c r="CU2" s="186"/>
+      <c r="CV2" s="186"/>
+      <c r="CW2" s="195"/>
+      <c r="CX2" s="197"/>
+      <c r="CY2" s="199"/>
       <c r="CZ2" s="30" t="s">
         <v>91</v>
       </c>
@@ -4124,9 +4124,9 @@
       <c r="DC2" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="DD2" s="155"/>
-      <c r="DE2" s="157"/>
-      <c r="DF2" s="159"/>
+      <c r="DD2" s="201"/>
+      <c r="DE2" s="203"/>
+      <c r="DF2" s="205"/>
       <c r="DG2" s="31" t="s">
         <v>95</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="DS2" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="DT2" s="141"/>
+      <c r="DT2" s="207"/>
       <c r="DU2" s="35" t="s">
         <v>108</v>
       </c>
@@ -4174,7 +4174,7 @@
         <f>3920000/26</f>
         <v>150769.23076923078</v>
       </c>
-      <c r="DW2" s="145"/>
+      <c r="DW2" s="211"/>
       <c r="DX2" s="34" t="s">
         <v>109</v>
       </c>
@@ -4193,7 +4193,7 @@
       <c r="EC2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="ED2" s="141"/>
+      <c r="ED2" s="207"/>
     </row>
     <row r="3" spans="1:139" s="10" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="36"/>
@@ -4484,7 +4484,7 @@
         <v>231750</v>
       </c>
       <c r="CM3" s="52">
-        <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;149000,(J3+K3+L3+M3+N3+O3)*1%,149000),0)</f>
+        <f>+IF(DF3="x",IF(((J3+K3+L3+M3+N3+O3)*1%)&lt;180000,(J3+K3+L3+M3+N3+O3)*1%,180000),0)</f>
         <v>0</v>
       </c>
       <c r="CN3" s="52">
@@ -4642,6 +4642,84 @@
   </sheetData>
   <autoFilter ref="A2:EI3"/>
   <mergeCells count="90">
+    <mergeCell ref="EA1:EC1"/>
+    <mergeCell ref="ED1:ED2"/>
+    <mergeCell ref="DT1:DT2"/>
+    <mergeCell ref="DU1:DV1"/>
+    <mergeCell ref="DW1:DW2"/>
+    <mergeCell ref="DX1:DZ1"/>
+    <mergeCell ref="DI1:DO1"/>
+    <mergeCell ref="DP1:DQ1"/>
+    <mergeCell ref="DR1:DS1"/>
+    <mergeCell ref="CV1:CV2"/>
+    <mergeCell ref="CW1:CW2"/>
+    <mergeCell ref="CX1:CX2"/>
+    <mergeCell ref="CY1:CY2"/>
+    <mergeCell ref="CZ1:DC1"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="DG1:DH1"/>
+    <mergeCell ref="CU1:CU2"/>
+    <mergeCell ref="CJ1:CJ2"/>
+    <mergeCell ref="CK1:CK2"/>
+    <mergeCell ref="CL1:CL2"/>
+    <mergeCell ref="CM1:CM2"/>
+    <mergeCell ref="CN1:CN2"/>
+    <mergeCell ref="CO1:CO2"/>
+    <mergeCell ref="CP1:CP2"/>
+    <mergeCell ref="CQ1:CQ2"/>
+    <mergeCell ref="CR1:CR2"/>
+    <mergeCell ref="CS1:CS2"/>
+    <mergeCell ref="CT1:CT2"/>
+    <mergeCell ref="CI1:CI2"/>
+    <mergeCell ref="BX1:BX2"/>
+    <mergeCell ref="BY1:BY2"/>
+    <mergeCell ref="BZ1:BZ2"/>
+    <mergeCell ref="CA1:CA2"/>
+    <mergeCell ref="CB1:CB2"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CD1:CD2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="CF1:CF2"/>
+    <mergeCell ref="CG1:CG2"/>
+    <mergeCell ref="CH1:CH2"/>
+    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="AW1:BB1"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BI2"/>
+    <mergeCell ref="BJ1:BJ2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BP1:BP2"/>
+    <mergeCell ref="BQ1:BQ2"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BT2"/>
+    <mergeCell ref="BU1:BU2"/>
+    <mergeCell ref="BV1:BV2"/>
+    <mergeCell ref="AV1:AV2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AO1:AO2"/>
+    <mergeCell ref="AP1:AP2"/>
+    <mergeCell ref="AQ1:AQ2"/>
+    <mergeCell ref="AR1:AR2"/>
+    <mergeCell ref="AS1:AS2"/>
+    <mergeCell ref="AT1:AT2"/>
+    <mergeCell ref="AU1:AU2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4654,84 +4732,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="BW1:BW2"/>
-    <mergeCell ref="AW1:BB1"/>
-    <mergeCell ref="BC1:BH1"/>
-    <mergeCell ref="BI1:BI2"/>
-    <mergeCell ref="BJ1:BJ2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BP1:BP2"/>
-    <mergeCell ref="BQ1:BQ2"/>
-    <mergeCell ref="BR1:BS1"/>
-    <mergeCell ref="BT1:BT2"/>
-    <mergeCell ref="BU1:BU2"/>
-    <mergeCell ref="BV1:BV2"/>
-    <mergeCell ref="CI1:CI2"/>
-    <mergeCell ref="BX1:BX2"/>
-    <mergeCell ref="BY1:BY2"/>
-    <mergeCell ref="BZ1:BZ2"/>
-    <mergeCell ref="CA1:CA2"/>
-    <mergeCell ref="CB1:CB2"/>
-    <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="CD1:CD2"/>
-    <mergeCell ref="CE1:CE2"/>
-    <mergeCell ref="CF1:CF2"/>
-    <mergeCell ref="CG1:CG2"/>
-    <mergeCell ref="CH1:CH2"/>
-    <mergeCell ref="CU1:CU2"/>
-    <mergeCell ref="CJ1:CJ2"/>
-    <mergeCell ref="CK1:CK2"/>
-    <mergeCell ref="CL1:CL2"/>
-    <mergeCell ref="CM1:CM2"/>
-    <mergeCell ref="CN1:CN2"/>
-    <mergeCell ref="CO1:CO2"/>
-    <mergeCell ref="CP1:CP2"/>
-    <mergeCell ref="CQ1:CQ2"/>
-    <mergeCell ref="CR1:CR2"/>
-    <mergeCell ref="CS1:CS2"/>
-    <mergeCell ref="CT1:CT2"/>
-    <mergeCell ref="DI1:DO1"/>
-    <mergeCell ref="DP1:DQ1"/>
-    <mergeCell ref="DR1:DS1"/>
-    <mergeCell ref="CV1:CV2"/>
-    <mergeCell ref="CW1:CW2"/>
-    <mergeCell ref="CX1:CX2"/>
-    <mergeCell ref="CY1:CY2"/>
-    <mergeCell ref="CZ1:DC1"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="DG1:DH1"/>
-    <mergeCell ref="EA1:EC1"/>
-    <mergeCell ref="ED1:ED2"/>
-    <mergeCell ref="DT1:DT2"/>
-    <mergeCell ref="DU1:DV1"/>
-    <mergeCell ref="DW1:DW2"/>
-    <mergeCell ref="DX1:DZ1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="17" priority="513"/>
@@ -4775,7 +4775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AO601" sqref="AO601"/>
       <selection pane="topRight" activeCell="AO601" sqref="AO601"/>
@@ -4829,16 +4829,16 @@
     <row r="1" spans="1:41" ht="30.75" customHeight="1">
       <c r="A1" s="69"/>
       <c r="B1" s="70"/>
-      <c r="C1" s="214" t="s">
+      <c r="C1" s="228" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
       <c r="M1" s="71"/>
@@ -4873,213 +4873,213 @@
     </row>
     <row r="2" spans="1:41" ht="23.25" customHeight="1">
       <c r="A2" s="69"/>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="229" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="215"/>
-      <c r="T2" s="215"/>
-      <c r="U2" s="215"/>
-      <c r="V2" s="215"/>
-      <c r="W2" s="215"/>
-      <c r="X2" s="215"/>
-      <c r="Y2" s="215"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="215"/>
-      <c r="AB2" s="215"/>
-      <c r="AC2" s="215"/>
-      <c r="AD2" s="215"/>
-      <c r="AE2" s="215"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="215"/>
-      <c r="AH2" s="215"/>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="229"/>
+      <c r="Q2" s="229"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="229"/>
+      <c r="T2" s="229"/>
+      <c r="U2" s="229"/>
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="229"/>
+      <c r="Z2" s="229"/>
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="229"/>
+      <c r="AD2" s="229"/>
+      <c r="AE2" s="229"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="229"/>
+      <c r="AH2" s="229"/>
+      <c r="AI2" s="229"/>
+      <c r="AJ2" s="229"/>
+      <c r="AK2" s="229"/>
+      <c r="AL2" s="229"/>
+      <c r="AM2" s="229"/>
+      <c r="AN2" s="229"/>
+      <c r="AO2" s="229"/>
     </row>
     <row r="3" spans="1:41" ht="30" customHeight="1">
       <c r="A3" s="69"/>
-      <c r="B3" s="215" t="s">
+      <c r="B3" s="229" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
-      <c r="R3" s="215"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="215"/>
-      <c r="V3" s="215"/>
-      <c r="W3" s="215"/>
-      <c r="X3" s="215"/>
-      <c r="Y3" s="215"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="215"/>
-      <c r="AB3" s="215"/>
-      <c r="AC3" s="215"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="215"/>
-      <c r="AH3" s="215"/>
-      <c r="AI3" s="215"/>
-      <c r="AJ3" s="215"/>
-      <c r="AK3" s="215"/>
-      <c r="AL3" s="215"/>
-      <c r="AM3" s="215"/>
-      <c r="AN3" s="215"/>
-      <c r="AO3" s="215"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="229"/>
+      <c r="P3" s="229"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="229"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="229"/>
+      <c r="AA3" s="229"/>
+      <c r="AB3" s="229"/>
+      <c r="AC3" s="229"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="229"/>
+      <c r="AG3" s="229"/>
+      <c r="AH3" s="229"/>
+      <c r="AI3" s="229"/>
+      <c r="AJ3" s="229"/>
+      <c r="AK3" s="229"/>
+      <c r="AL3" s="229"/>
+      <c r="AM3" s="229"/>
+      <c r="AN3" s="229"/>
+      <c r="AO3" s="229"/>
     </row>
     <row r="4" spans="1:41" ht="21.75" customHeight="1">
-      <c r="A4" s="216" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="216" t="s">
+      <c r="A4" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="230" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="230" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="218" t="s">
+      <c r="D4" s="216" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="218" t="s">
+      <c r="E4" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="218" t="s">
+      <c r="G4" s="216" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="220" t="s">
+      <c r="H4" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="218" t="s">
+      <c r="I4" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="218" t="s">
+      <c r="J4" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="218" t="s">
+      <c r="K4" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="218" t="s">
+      <c r="L4" s="216" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="212" t="s">
+      <c r="M4" s="222" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="N4" s="222" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="226" t="s">
+      <c r="O4" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="P4" s="228" t="s">
+      <c r="P4" s="226" t="s">
         <v>130</v>
       </c>
-      <c r="Q4" s="226" t="s">
+      <c r="Q4" s="224" t="s">
         <v>131</v>
       </c>
-      <c r="R4" s="228" t="s">
+      <c r="R4" s="226" t="s">
         <v>132</v>
       </c>
-      <c r="S4" s="228" t="s">
+      <c r="S4" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="T4" s="218" t="s">
+      <c r="T4" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218" t="s">
+      <c r="U4" s="216"/>
+      <c r="V4" s="216"/>
+      <c r="W4" s="216"/>
+      <c r="X4" s="216"/>
+      <c r="Y4" s="216"/>
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" s="220" t="s">
+      <c r="AD4" s="214" t="s">
         <v>136</v>
       </c>
-      <c r="AE4" s="220" t="s">
+      <c r="AE4" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" s="220" t="s">
+      <c r="AF4" s="214" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" s="218" t="s">
+      <c r="AG4" s="216" t="s">
         <v>139</v>
       </c>
-      <c r="AH4" s="220" t="s">
+      <c r="AH4" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="AI4" s="218" t="s">
+      <c r="AI4" s="216" t="s">
         <v>141</v>
       </c>
-      <c r="AJ4" s="218"/>
-      <c r="AK4" s="218"/>
-      <c r="AL4" s="218"/>
-      <c r="AM4" s="218"/>
-      <c r="AN4" s="218"/>
-      <c r="AO4" s="222" t="s">
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="216"/>
+      <c r="AM4" s="216"/>
+      <c r="AN4" s="216"/>
+      <c r="AO4" s="217" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="45" customHeight="1">
-      <c r="A5" s="217"/>
-      <c r="B5" s="217"/>
-      <c r="C5" s="217"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="227"/>
-      <c r="P5" s="229"/>
-      <c r="Q5" s="227"/>
-      <c r="R5" s="229"/>
-      <c r="S5" s="229"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="223"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="227"/>
+      <c r="Q5" s="225"/>
+      <c r="R5" s="227"/>
+      <c r="S5" s="227"/>
       <c r="T5" s="75" t="s">
         <v>143</v>
       </c>
@@ -5107,12 +5107,12 @@
       <c r="AB5" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="AC5" s="219"/>
-      <c r="AD5" s="221"/>
-      <c r="AE5" s="221"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="219"/>
-      <c r="AH5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="215"/>
+      <c r="AE5" s="215"/>
+      <c r="AF5" s="215"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="215"/>
       <c r="AI5" s="75" t="s">
         <v>151</v>
       </c>
@@ -5131,7 +5131,7 @@
       <c r="AN5" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="AO5" s="223"/>
+      <c r="AO5" s="218"/>
     </row>
     <row r="6" spans="1:41" s="80" customFormat="1" ht="24.75" customHeight="1">
       <c r="A6" s="76">
@@ -5295,11 +5295,11 @@
     </row>
     <row r="7" spans="1:41" s="83" customFormat="1" ht="24.75" customHeight="1">
       <c r="A7" s="81"/>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="219" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
       <c r="E7" s="82">
         <f t="shared" ref="E7:AO7" si="0">+SUBTOTAL(9,E6:E6)</f>
         <v>4800000</v>
@@ -5578,10 +5578,10 @@
     <row r="11" spans="1:41" s="94" customFormat="1" ht="18.75">
       <c r="D11" s="95"/>
       <c r="M11" s="97"/>
-      <c r="N11" s="225"/>
-      <c r="O11" s="225"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="225"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="220"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="220"/>
       <c r="R11" s="98"/>
       <c r="S11" s="98"/>
       <c r="T11" s="98"/>
@@ -5597,10 +5597,10 @@
       <c r="AD11" s="98"/>
       <c r="AE11" s="98"/>
       <c r="AF11" s="98"/>
-      <c r="AG11" s="225"/>
-      <c r="AH11" s="225"/>
-      <c r="AI11" s="225"/>
-      <c r="AJ11" s="225"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="220"/>
+      <c r="AI11" s="220"/>
+      <c r="AJ11" s="220"/>
       <c r="AK11" s="98"/>
       <c r="AL11" s="98"/>
       <c r="AM11" s="98"/>
@@ -5610,10 +5610,10 @@
     <row r="12" spans="1:41" s="94" customFormat="1" ht="18.75" customHeight="1">
       <c r="D12" s="95"/>
       <c r="M12" s="97"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="230"/>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
       <c r="R12" s="98"/>
       <c r="S12" s="98"/>
       <c r="T12" s="98"/>
@@ -5641,10 +5641,10 @@
     </row>
     <row r="13" spans="1:41" ht="18.75" customHeight="1">
       <c r="I13" s="101"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="230"/>
-      <c r="Q13" s="230"/>
+      <c r="N13" s="212"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
       <c r="R13" s="103"/>
       <c r="S13" s="103"/>
       <c r="T13" s="103"/>
@@ -5670,10 +5670,10 @@
       <c r="AN13" s="103"/>
     </row>
     <row r="14" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N14" s="230"/>
-      <c r="O14" s="230"/>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="230"/>
+      <c r="N14" s="212"/>
+      <c r="O14" s="212"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
       <c r="R14" s="103"/>
       <c r="S14" s="103"/>
       <c r="T14" s="103"/>
@@ -5699,10 +5699,10 @@
       <c r="AN14" s="103"/>
     </row>
     <row r="15" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="230"/>
-      <c r="Q15" s="230"/>
+      <c r="N15" s="212"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="212"/>
       <c r="R15" s="103"/>
       <c r="S15" s="103"/>
       <c r="T15" s="103"/>
@@ -5728,10 +5728,10 @@
       <c r="AN15" s="103"/>
     </row>
     <row r="16" spans="1:41" ht="18.75" customHeight="1">
-      <c r="N16" s="230"/>
-      <c r="O16" s="230"/>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="230"/>
+      <c r="N16" s="212"/>
+      <c r="O16" s="212"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="212"/>
       <c r="R16" s="103"/>
       <c r="S16" s="103"/>
       <c r="T16" s="103"/>
@@ -5757,10 +5757,10 @@
       <c r="AN16" s="103"/>
     </row>
     <row r="17" spans="14:41" ht="22.5" customHeight="1">
-      <c r="N17" s="231"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="231"/>
+      <c r="N17" s="213"/>
+      <c r="O17" s="213"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
       <c r="R17" s="105"/>
       <c r="S17" s="105"/>
       <c r="T17" s="105"/>
@@ -5776,10 +5776,10 @@
       <c r="AD17" s="105"/>
       <c r="AE17" s="105"/>
       <c r="AF17" s="105"/>
-      <c r="AG17" s="231"/>
-      <c r="AH17" s="231"/>
-      <c r="AI17" s="231"/>
-      <c r="AJ17" s="231"/>
+      <c r="AG17" s="213"/>
+      <c r="AH17" s="213"/>
+      <c r="AI17" s="213"/>
+      <c r="AJ17" s="213"/>
       <c r="AK17" s="105"/>
       <c r="AL17" s="105"/>
       <c r="AM17" s="105"/>
@@ -5791,11 +5791,22 @@
   </sheetData>
   <autoFilter ref="A5:AO9"/>
   <mergeCells count="37">
-    <mergeCell ref="N12:Q16"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="AG17:AJ17"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:AO2"/>
+    <mergeCell ref="B3:AO3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="N11:Q11"/>
@@ -5812,22 +5823,11 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="B2:AO2"/>
-    <mergeCell ref="B3:AO3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N12:Q16"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="AG17:AJ17"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AN4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39500000000000002" bottom="0" header="0" footer="0"/>
